--- a/ruoyi-admin/src/main/resources/template/清洁生产列表模版.xlsx
+++ b/ruoyi-admin/src/main/resources/template/清洁生产列表模版.xlsx
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>清洁生产统计表</t>
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>单位名称</t>
   </si>
   <si>
     <t>名称</t>
@@ -53,13 +50,13 @@
     <t>方案情况</t>
   </si>
   <si>
-    <t>预计减排效果</t>
+    <t>减排效果</t>
   </si>
   <si>
     <t>工作进展</t>
   </si>
   <si>
-    <t>计划实施时间</t>
+    <t>实施时间</t>
   </si>
 </sst>
 </file>
@@ -1295,23 +1292,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="7" width="19.6851851851852" customWidth="1"/>
-    <col min="8" max="8" width="24.6111111111111" customWidth="1"/>
-    <col min="9" max="9" width="19.6851851851852" customWidth="1"/>
-    <col min="10" max="10" width="24.6111111111111" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="6" width="19.6851851851852" customWidth="1"/>
+    <col min="7" max="7" width="24.6111111111111" customWidth="1"/>
+    <col min="8" max="8" width="19.6851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.6111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:10">
+    <row r="1" ht="19.2" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,9 +1320,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="35" customHeight="1" spans="1:10">
+    <row r="2" ht="35" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1353,11 +1349,8 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:10">
+    <row r="3" ht="25" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1367,11 +1360,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
